--- a/3 семинар/6_Юнит-экономика_Воркшоп 3. Кейс#1.xlsx
+++ b/3 семинар/6_Юнит-экономика_Воркшоп 3. Кейс#1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александра\Documents\Обучение-Разработчик\Специализация - Аналитик\Вне четверти\GB4623_A_Unit_Economics\3 семинар\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\полученные файлы\Обучение - Разработчик\Специализация - Аналитик\Вне четверти\GB4623_A_Unit_Economics\3 семинар\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="26">
   <si>
     <t>Посетители (UA)</t>
   </si>
@@ -69,9 +69,6 @@
     <t xml:space="preserve"> Среднее число покупок (APC)</t>
   </si>
   <si>
-    <t>##</t>
-  </si>
-  <si>
     <t>Конверсия в первую покупку (С1)</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>ARPPU - Средняя выручка на платящего пользователя</t>
   </si>
   <si>
-    <t>ARPU</t>
-  </si>
-  <si>
     <t>Маркетинговый бюджет в месяц</t>
   </si>
   <si>
@@ -100,6 +94,9 @@
   </si>
   <si>
     <t>Итого Gross Profit в месяц</t>
+  </si>
+  <si>
+    <t>ARPU - средняя выручка на потенциального клиента</t>
   </si>
 </sst>
 </file>
@@ -110,7 +107,7 @@
     <numFmt numFmtId="164" formatCode="[$р.-419]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$р.-419]#,##0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -136,13 +133,34 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -169,10 +187,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -189,11 +208,15 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,14 +434,14 @@
   </sheetPr>
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -444,7 +467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="12.75">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -468,7 +491,7 @@
         <v>18849</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -490,7 +513,7 @@
         <v>21059</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -510,7 +533,7 @@
         <v>22160</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -528,7 +551,7 @@
         <v>20094</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -544,7 +567,7 @@
         <v>22684</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -593,7 +616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -617,7 +640,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -639,7 +662,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -659,7 +682,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -677,7 +700,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -693,7 +716,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -742,7 +765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="12.75">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -766,7 +789,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="12.75">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -788,7 +811,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="12.75">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -808,7 +831,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="12.75">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -826,7 +849,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="12.75">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -842,7 +865,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="12.75">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -869,26 +892,26 @@
       <c r="G25" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.2">
+    <row r="29" spans="1:7" ht="12.75">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -897,45 +920,45 @@
         <v>1</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" ref="C29:F31" si="4">C20/C11</f>
-        <v>5.666666666666667</v>
+        <f>(B20+C20)/(B11+C11)</f>
+        <v>1.4545454545454546</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="4"/>
-        <v>7.3</v>
+        <f>(B20+C20+D20)/(B11+C11+D11)</f>
+        <v>1.8109756097560976</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f>(B20+C20+D20+E20)/(B11+C11+D11+E11)</f>
+        <v>2.0742857142857143</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="4"/>
-        <v>9.3333333333333339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="13.2">
+        <f>(B20+C20+D20+E20+F20)/(B11+C11+D11+E11+F11)</f>
+        <v>2.3149171270718232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="6">
-        <f t="shared" si="4"/>
+        <f>(B21+C21)/(B12+C12)</f>
         <v>1</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="4"/>
-        <v>2.806451612903226</v>
+        <f t="shared" ref="D30:D31" si="4">(B21+C21+D21)/(B12+C12+D12)</f>
+        <v>1.3943661971830985</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" ref="E30:F30" si="5">E21/E12</f>
-        <v>3.2413793103448274</v>
+        <f t="shared" ref="E30:E32" si="5">(B21+C21+D21+E21)/(B12+C12+D12+E12)</f>
+        <v>1.7076023391812865</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="13.2">
+        <f t="shared" ref="F30:F33" si="6">(B21+C21+D21+E21+F21)/(B12+C12+D12+E12+F12)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -946,15 +969,15 @@
         <v>1</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" ref="E31:F31" si="6">E22/E13</f>
-        <v>3.5769230769230771</v>
+        <f t="shared" si="5"/>
+        <v>1.41875</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="6"/>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="13.2">
+        <v>1.7405405405405405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -962,15 +985,15 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="6">
-        <f t="shared" ref="E32:F32" si="7">E23/E14</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="7"/>
-        <v>2.2247191011235956</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="13.2">
+        <f t="shared" si="6"/>
+        <v>1.3550488599348534</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.75">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
@@ -979,128 +1002,128 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="6">
-        <f t="shared" ref="F33" si="8">F24/F15</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.6">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.2">
+    <row r="37" spans="1:6" ht="12.75">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="16">
-        <f>B11/B2*100</f>
-        <v>0.73743965197092687</v>
-      </c>
-      <c r="C37" s="16">
-        <f t="shared" ref="C37:F38" si="9">C11/C2*100</f>
-        <v>1.6146393972012916</v>
-      </c>
-      <c r="D37" s="16">
-        <f t="shared" si="9"/>
-        <v>2.3474178403755865</v>
-      </c>
-      <c r="E37" s="16">
-        <f t="shared" si="9"/>
-        <v>4.3307086614173231</v>
-      </c>
-      <c r="F37" s="16">
-        <f t="shared" si="9"/>
-        <v>3.0150753768844218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="13.2">
+      <c r="B37" s="18">
+        <f>B11/B2</f>
+        <v>7.3743965197092688E-3</v>
+      </c>
+      <c r="C37" s="18">
+        <f>(B11+C11)/B2</f>
+        <v>8.1701947052894054E-3</v>
+      </c>
+      <c r="D37" s="18">
+        <f>(B11+C11+D11)/$B2</f>
+        <v>8.7007268290094971E-3</v>
+      </c>
+      <c r="E37" s="18">
+        <f>(B11+C11+D11+E11)/$B2</f>
+        <v>9.2843121651015968E-3</v>
+      </c>
+      <c r="F37" s="18">
+        <f>(B11+C11+D11+E11+F11)/$B2</f>
+        <v>9.6026314393336514E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.75">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="16">
-        <f t="shared" si="9"/>
-        <v>0.52709055510708014</v>
-      </c>
-      <c r="D38" s="16">
-        <f t="shared" ref="D38:F38" si="10">D12/D3*100</f>
-        <v>3.6427732079905994</v>
-      </c>
-      <c r="E38" s="16">
-        <f t="shared" si="10"/>
-        <v>10.069444444444445</v>
-      </c>
-      <c r="F38" s="16">
-        <f t="shared" si="10"/>
-        <v>8.4388185654008439</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="13.2">
+      <c r="B38" s="19"/>
+      <c r="C38" s="18">
+        <f>C12/C3</f>
+        <v>5.2709055510708012E-3</v>
+      </c>
+      <c r="D38" s="18">
+        <f>(C12+D12)/$C3</f>
+        <v>6.7429602545230069E-3</v>
+      </c>
+      <c r="E38" s="18">
+        <f>(C12+D12+E12)/$C3</f>
+        <v>8.1200436867847475E-3</v>
+      </c>
+      <c r="F38" s="18">
+        <f>(C12+D12+E12+F12)/$C3</f>
+        <v>9.0697563986893957E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.75">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="16">
-        <f t="shared" ref="D39:F39" si="11">D13/D4*100</f>
-        <v>0.60469314079422387</v>
-      </c>
-      <c r="E39" s="16">
-        <f t="shared" si="11"/>
-        <v>2.3131672597864767</v>
-      </c>
-      <c r="F39" s="16">
-        <f t="shared" si="11"/>
-        <v>5.5309734513274336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="13.2">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="18">
+        <f>D13/D4</f>
+        <v>6.0469314079422383E-3</v>
+      </c>
+      <c r="E39" s="18">
+        <f>(D13+E13)/$D4</f>
+        <v>7.2202166064981952E-3</v>
+      </c>
+      <c r="F39" s="18">
+        <f>(D13+E13+F13)/$D4</f>
+        <v>8.3483754512635386E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.75">
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="16">
-        <f t="shared" ref="E40:F40" si="12">E14/E5*100</f>
-        <v>1.0849009654623269</v>
-      </c>
-      <c r="F40" s="16">
-        <f t="shared" si="12"/>
-        <v>6.9153069153069149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="13.2">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="18">
+        <f>E14/E5</f>
+        <v>1.084900965462327E-2</v>
+      </c>
+      <c r="F40" s="18">
+        <f>(E14+F14)/E5</f>
+        <v>1.527819249527222E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="12.75">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="16">
-        <f t="shared" ref="F41" si="13">F15/F6*100</f>
-        <v>1.6663727737612415</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.6">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="18">
+        <f>F15/F6</f>
+        <v>1.6663727737612415E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1</v>
@@ -1118,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.2">
+    <row r="45" spans="1:6" ht="12.75">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -1138,7 +1161,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.2">
+    <row r="46" spans="1:6" ht="12.75">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1156,7 +1179,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.2">
+    <row r="47" spans="1:6" ht="12.75">
       <c r="A47" s="2" t="s">
         <v>9</v>
       </c>
@@ -1172,7 +1195,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.2">
+    <row r="48" spans="1:6" ht="12.75">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
@@ -1186,7 +1209,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.2">
+    <row r="49" spans="1:6" ht="12.75">
       <c r="A49" s="2" t="s">
         <v>11</v>
       </c>
@@ -1198,95 +1221,109 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.6">
-      <c r="A52" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="2" t="s">
+    <row r="52" spans="1:6">
+      <c r="A52" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="13.2">
+    <row r="53" spans="1:6" ht="12.75">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="13.2">
+      <c r="B53" s="9">
+        <f>B45*B29</f>
+        <v>3500</v>
+      </c>
+      <c r="C53" s="9">
+        <f t="shared" ref="C53:F55" si="7">C45*C29</f>
+        <v>5090.909090909091</v>
+      </c>
+      <c r="D53" s="9">
+        <f t="shared" si="7"/>
+        <v>6338.414634146342</v>
+      </c>
+      <c r="E53" s="9">
+        <f t="shared" si="7"/>
+        <v>7260</v>
+      </c>
+      <c r="F53" s="9">
+        <f t="shared" si="7"/>
+        <v>8102.209944751381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12.75">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="10"/>
-      <c r="C54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="13.2">
+      <c r="C54" s="9">
+        <f t="shared" si="7"/>
+        <v>3500</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" si="7"/>
+        <v>4880.2816901408451</v>
+      </c>
+      <c r="E54" s="9">
+        <f t="shared" si="7"/>
+        <v>5976.6081871345023</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" si="7"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="12.75">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
-      <c r="D55" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="13.2">
+      <c r="D55" s="9">
+        <f t="shared" si="7"/>
+        <v>3500</v>
+      </c>
+      <c r="E55" s="9">
+        <f t="shared" ref="E55:F55" si="8">E47*E31</f>
+        <v>4965.625</v>
+      </c>
+      <c r="F55" s="9">
+        <f t="shared" si="8"/>
+        <v>6091.8918918918916</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="12.75">
       <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="13.2">
+      <c r="E56" s="9">
+        <f t="shared" ref="E56:F56" si="9">E48*E32</f>
+        <v>3500</v>
+      </c>
+      <c r="F56" s="9">
+        <f t="shared" si="9"/>
+        <v>4742.671009771987</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="12.75">
       <c r="A57" s="2" t="s">
         <v>11</v>
       </c>
@@ -1294,113 +1331,114 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
-      <c r="F57" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.6">
-      <c r="A60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="F57" s="9">
+        <f t="shared" ref="F57" si="10">F49*F33</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="13.2">
+    <row r="61" spans="1:6" ht="12.75">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="9" t="e">
-        <f t="shared" ref="B61:F61" si="14">B53*B37</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C61" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D61" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="13.2">
+      <c r="B61" s="9">
+        <f t="shared" ref="B61:F61" si="11">B53*B37</f>
+        <v>25.810387818982441</v>
+      </c>
+      <c r="C61" s="9">
+        <f t="shared" si="11"/>
+        <v>41.593718499655154</v>
+      </c>
+      <c r="D61" s="9">
+        <f t="shared" si="11"/>
+        <v>55.148814260703496</v>
+      </c>
+      <c r="E61" s="9">
+        <f t="shared" si="11"/>
+        <v>67.404106318637588</v>
+      </c>
+      <c r="F61" s="9">
+        <f t="shared" si="11"/>
+        <v>77.802535943551376</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="12.75">
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B62" s="10"/>
-      <c r="C62" s="9" t="e">
-        <f t="shared" ref="C62:F62" si="15">C54*C38</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D62" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E62" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F62" s="9" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="13.2">
+      <c r="C62" s="9">
+        <f t="shared" ref="C62:F62" si="12">C54*C38</f>
+        <v>18.448169428747804</v>
+      </c>
+      <c r="D62" s="9">
+        <f t="shared" si="12"/>
+        <v>32.907545467496085</v>
+      </c>
+      <c r="E62" s="9">
+        <f t="shared" si="12"/>
+        <v>48.53031957832755</v>
+      </c>
+      <c r="F62" s="9">
+        <f t="shared" si="12"/>
+        <v>63.488294790825769</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="12.75">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
-      <c r="D63" s="9" t="e">
-        <f t="shared" ref="D63:F63" si="16">D55*D39</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E63" s="9" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F63" s="9" t="e">
-        <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="13.2">
+      <c r="D63" s="9">
+        <f t="shared" ref="D63:F63" si="13">D55*D39</f>
+        <v>21.164259927797833</v>
+      </c>
+      <c r="E63" s="9">
+        <f t="shared" si="13"/>
+        <v>35.852888086642601</v>
+      </c>
+      <c r="F63" s="9">
+        <f t="shared" si="13"/>
+        <v>50.857400722021666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="12.75">
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="9" t="e">
-        <f t="shared" ref="E64:F64" si="17">E56*E40</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F64" s="9" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="13.2">
+      <c r="E64" s="9">
+        <f t="shared" ref="E64:F64" si="14">E56*E40</f>
+        <v>37.971533791181443</v>
+      </c>
+      <c r="F64" s="9">
+        <f t="shared" si="14"/>
+        <v>72.459440629043499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="12.75">
       <c r="A65" s="2" t="s">
         <v>11</v>
       </c>
@@ -1408,26 +1446,26 @@
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
-      <c r="F65" s="9" t="e">
+      <c r="F65" s="9">
         <f>F57*F41</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="13.2">
+        <v>58.323047081643452</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="12.75">
       <c r="A67" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B67" s="12">
         <v>400000</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.6">
-      <c r="A68" s="1" t="s">
-        <v>22</v>
+    <row r="68" spans="1:6">
+      <c r="A68" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:6" ht="13.2">
+    <row r="69" spans="1:6" ht="12.75">
       <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
@@ -1436,7 +1474,7 @@
         <v>21.22128494880365</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="13.2">
+    <row r="70" spans="1:6" ht="12.75">
       <c r="A70" s="2" t="s">
         <v>8</v>
       </c>
@@ -1445,7 +1483,7 @@
         <v>18.994254238092978</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="13.2">
+    <row r="71" spans="1:6" ht="12.75">
       <c r="A71" s="2" t="s">
         <v>9</v>
       </c>
@@ -1454,7 +1492,7 @@
         <v>18.050541516245488</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="13.2">
+    <row r="72" spans="1:6" ht="12.75">
       <c r="A72" s="2" t="s">
         <v>10</v>
       </c>
@@ -1463,7 +1501,7 @@
         <v>19.906439733253709</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="13.2">
+    <row r="73" spans="1:6" ht="12.75">
       <c r="A73" s="2" t="s">
         <v>11</v>
       </c>
@@ -1472,109 +1510,109 @@
         <v>17.633574325515781</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.6">
-      <c r="A75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="2" t="s">
+    <row r="75" spans="1:6">
+      <c r="A75" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="13.2">
+    <row r="76" spans="1:6" ht="12.75">
       <c r="A76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="13" t="e">
+      <c r="B76" s="13">
         <f>(B61-B69)*B2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C76" s="13" t="e">
+        <v>86500.000000000044</v>
+      </c>
+      <c r="C76" s="13">
         <f>(C61-B69)*B2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D76" s="13" t="e">
+        <v>384000</v>
+      </c>
+      <c r="D76" s="13">
         <f>(D61-B69)*B2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E76" s="13" t="e">
+        <v>639500.00000000023</v>
+      </c>
+      <c r="E76" s="13">
         <f>(E61-B69)*B2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F76" s="13" t="e">
+        <v>870499.99999999988</v>
+      </c>
+      <c r="F76" s="13">
         <f>(F61-B69)*B2</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="13.2">
+        <v>1066500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="12.75">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="13" t="e">
+      <c r="C77" s="13">
         <f>(C62-B70)*C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D77" s="13" t="e">
+        <v>-11500.000000000029</v>
+      </c>
+      <c r="D77" s="13">
         <f>(D62-B70)*C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E77" s="13" t="e">
+        <v>293000.00000000006</v>
+      </c>
+      <c r="E77" s="13">
         <f>(E62-B70)*C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F77" s="13" t="e">
+        <v>621999.99999999988</v>
+      </c>
+      <c r="F77" s="13">
         <f>(F62-B70)*C3</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="13.2">
+        <v>936999.99999999988</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="12.75">
       <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="13" t="e">
+      <c r="D78" s="13">
         <f>(D63-B71)*D4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E78" s="13" t="e">
+        <v>68999.999999999956</v>
+      </c>
+      <c r="E78" s="13">
         <f>(E63-B71)*D4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F78" s="13" t="e">
+        <v>394500</v>
+      </c>
+      <c r="F78" s="13">
         <f>(F63-B71)*D4</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="13.2">
+        <v>727000.00000000012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="12.75">
       <c r="A79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
-      <c r="E79" s="13" t="e">
+      <c r="E79" s="13">
         <f>(E64-B72)*E5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F79" s="13" t="e">
+        <v>362999.99999999988</v>
+      </c>
+      <c r="F79" s="13">
         <f>(F64-B72)*E5</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="13.2">
+        <v>1056000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="12.75">
       <c r="A80" s="2" t="s">
         <v>11</v>
       </c>
@@ -1582,139 +1620,139 @@
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
-      <c r="F80" s="13" t="e">
+      <c r="F80" s="13">
         <f>(F65-B73)*F6</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="13.2">
+        <v>923000.00000000012</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="12.75">
       <c r="A81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" s="14" t="e">
-        <f t="shared" ref="B81:F81" si="18">SUM(B76:B80)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C81" s="14" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D81" s="14" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E81" s="14" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F81" s="14" t="e">
-        <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.6">
-      <c r="A83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" s="14">
+        <f t="shared" ref="B81:F81" si="15">SUM(B76:B80)</f>
+        <v>86500.000000000044</v>
+      </c>
+      <c r="C81" s="14">
+        <f t="shared" si="15"/>
+        <v>372500</v>
+      </c>
+      <c r="D81" s="14">
+        <f t="shared" si="15"/>
+        <v>1001500.0000000002</v>
+      </c>
+      <c r="E81" s="14">
+        <f t="shared" si="15"/>
+        <v>2249999.9999999995</v>
+      </c>
+      <c r="F81" s="14">
+        <f t="shared" si="15"/>
+        <v>4709500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="13.2">
+    <row r="84" spans="1:6" ht="12.75">
       <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="13" t="e">
+      <c r="B84" s="13">
         <f>B76</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C84" s="13" t="e">
-        <f t="shared" ref="C84:F84" si="19">C76-B76</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D84" s="13" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E84" s="13" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F84" s="13" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="13.2">
+        <v>86500.000000000044</v>
+      </c>
+      <c r="C84" s="13">
+        <f t="shared" ref="C84:F84" si="16">C76-B76</f>
+        <v>297499.99999999994</v>
+      </c>
+      <c r="D84" s="13">
+        <f t="shared" si="16"/>
+        <v>255500.00000000023</v>
+      </c>
+      <c r="E84" s="13">
+        <f t="shared" si="16"/>
+        <v>230999.99999999965</v>
+      </c>
+      <c r="F84" s="13">
+        <f t="shared" si="16"/>
+        <v>196000.00000000012</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="12.75">
       <c r="A85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B85" s="14"/>
-      <c r="C85" s="13" t="e">
+      <c r="C85" s="13">
         <f>C77</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D85" s="13" t="e">
-        <f t="shared" ref="D85:F85" si="20">D77-C77</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E85" s="13" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F85" s="13" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="13.2">
+        <v>-11500.000000000029</v>
+      </c>
+      <c r="D85" s="13">
+        <f t="shared" ref="D85:F85" si="17">D77-C77</f>
+        <v>304500.00000000012</v>
+      </c>
+      <c r="E85" s="13">
+        <f t="shared" si="17"/>
+        <v>328999.99999999983</v>
+      </c>
+      <c r="F85" s="13">
+        <f t="shared" si="17"/>
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="12.75">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
-      <c r="D86" s="13" t="e">
+      <c r="D86" s="13">
         <f>D78</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E86" s="13" t="e">
-        <f t="shared" ref="E86:F86" si="21">E78-D78</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F86" s="13" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="13.2">
+        <v>68999.999999999956</v>
+      </c>
+      <c r="E86" s="13">
+        <f t="shared" ref="E86:F86" si="18">E78-D78</f>
+        <v>325500.00000000006</v>
+      </c>
+      <c r="F86" s="13">
+        <f t="shared" si="18"/>
+        <v>332500.00000000012</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12.75">
       <c r="A87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
-      <c r="E87" s="13" t="e">
+      <c r="E87" s="13">
         <f>E79</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F87" s="13" t="e">
+        <v>362999.99999999988</v>
+      </c>
+      <c r="F87" s="13">
         <f>F79-E79</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="13.2">
+        <v>693000.00000000012</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12.75">
       <c r="A88" s="2" t="s">
         <v>11</v>
       </c>
@@ -1722,37 +1760,38 @@
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
-      <c r="F88" s="13" t="e">
+      <c r="F88" s="13">
         <f>F80</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="13.2">
+        <v>923000.00000000012</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="12.75">
       <c r="A89" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:F89" si="22">SUM(B84:B88)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="15" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
+        <v>24</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:F89" si="19">SUM(B84:B88)</f>
+        <v>86500.000000000044</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="19"/>
+        <v>285999.99999999988</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="19"/>
+        <v>629000.00000000035</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="19"/>
+        <v>1248499.9999999995</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="19"/>
+        <v>2459500.0000000005</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>